--- a/pred_ohlcv/54_21/2019-10-30 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 HDAC ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-220337.5002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-240306.3833</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-237840.3375</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-237856.0305</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-375582.588</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-375582.588</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-366982.2586</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-818696.1632</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-818696.1632</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-732771.7261</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-445157.8471</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-631797.4443999999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 HDAC ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-375582.588</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-306356.5237</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-306361.0133</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-306327.0133</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-306327.0133</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-445393.3605</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-520831.8605</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-818696.1632</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-818696.1632</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-717474.3447</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-820329.8987</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-804279.8987</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-804279.8987</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-788136.7629</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-767225.5474999999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-767225.5474999999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-767225.5474999999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-742661.0686999998</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-821993.3368999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-826235.2316999999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-826225.2316999999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-826225.2316999999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-631797.4443999999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
